--- a/Week 16/Methods/Points/ScoredExamples.xlsx
+++ b/Week 16/Methods/Points/ScoredExamples.xlsx
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>128.5714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>10.76923076923077</v>
+        <v>20.76923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:4">
